--- a/analise_descritiva.xlsx
+++ b/analise_descritiva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,54 +525,54 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55130461</v>
+        <v>43154807</v>
       </c>
       <c r="D2" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02426950350669184</v>
+        <v>0.02288471998432337</v>
       </c>
       <c r="F2" t="n">
-        <v>297615</v>
+        <v>299743</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01687111187683952</v>
+        <v>0.01696494463171732</v>
       </c>
       <c r="H2" t="n">
-        <v>204882</v>
+        <v>204292.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>297615.0 (204882.0)</t>
+          <t>299743.0 (204292.5)</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>495860</v>
+        <v>496394.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02537394859448614</v>
+        <v>0.02532628119589395</v>
       </c>
       <c r="L2" t="n">
-        <v>103836.25</v>
+        <v>104577.25</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>495860.0 (103836.25)</t>
+          <t>496394.5 (104577.25)</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>898076</v>
+        <v>789196</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02994985498190997</v>
+        <v>0.02876632377788762</v>
       </c>
       <c r="P2" t="n">
-        <v>213684</v>
+        <v>204127</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>898076.0 (213684.0)</t>
+          <t>789196.0 (204127.0)</t>
         </is>
       </c>
     </row>
@@ -582,17 +582,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F00_F09</t>
+          <t>F00_F09_transtornos_organicos</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2423224</v>
+        <v>1956802</v>
       </c>
       <c r="D3" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001066750437031532</v>
+        <v>0.001037679668797127</v>
       </c>
       <c r="F3" t="n">
         <v>14319</v>
@@ -623,17 +623,17 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>36948</v>
+        <v>33913</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001217750137738789</v>
+        <v>0.00120057398137199</v>
       </c>
       <c r="P3" t="n">
-        <v>7282</v>
+        <v>6226</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>36948.0 (7282.0)</t>
+          <t>33913.0 (6226.0)</t>
         </is>
       </c>
     </row>
@@ -643,58 +643,58 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F20_F29</t>
+          <t>F10_F19_uso_substancia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3358923</v>
+        <v>948688</v>
       </c>
       <c r="D4" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001478663374993506</v>
+        <v>0.0005030832192688934</v>
       </c>
       <c r="F4" t="n">
-        <v>22093</v>
+        <v>6647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001251926760547725</v>
+        <v>0.0003834075805155919</v>
       </c>
       <c r="H4" t="n">
-        <v>15685.5</v>
+        <v>3720</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>22093.0 (15685.5)</t>
+          <t>6647.0 (3720.0)</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>31522</v>
+        <v>10706.5</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001570326739525337</v>
+        <v>0.0005339869023675446</v>
       </c>
       <c r="L4" t="n">
-        <v>4528.75</v>
+        <v>1589.5</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>31522.0 (4528.75)</t>
+          <t>10706.5 (1589.5)</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>48692</v>
+        <v>17409</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00163152525749144</v>
+        <v>0.0006132393730013981</v>
       </c>
       <c r="P4" t="n">
-        <v>10101</v>
+        <v>4537</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>48692.0 (10101.0)</t>
+          <t>17409.0 (4537.0)</t>
         </is>
       </c>
     </row>
@@ -704,58 +704,58 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F30_F39</t>
+          <t>F20_F29_esquizofrenia_etc</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12899282</v>
+        <v>2725527</v>
       </c>
       <c r="D5" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005678515362547158</v>
+        <v>0.00144532965249301</v>
       </c>
       <c r="F5" t="n">
-        <v>91231</v>
+        <v>22093</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005222860231769756</v>
+        <v>0.001251926760547725</v>
       </c>
       <c r="H5" t="n">
-        <v>47130</v>
+        <v>15685.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91231.0 (47130.0)</t>
+          <t>22093.0 (15685.5)</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>124373</v>
+        <v>31522</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006329029039083724</v>
+        <v>0.001570326739525337</v>
       </c>
       <c r="L5" t="n">
-        <v>19287.75</v>
+        <v>4528.75</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>124373.0 (19287.75)</t>
+          <t>31522.0 (4528.75)</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>170751</v>
+        <v>45370</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005714412336748419</v>
+        <v>0.001569653100354281</v>
       </c>
       <c r="P5" t="n">
-        <v>29495</v>
+        <v>9507</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>170751.0 (29495.0)</t>
+          <t>45370.0 (9507.0)</t>
         </is>
       </c>
     </row>
@@ -765,58 +765,58 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F40_F48</t>
+          <t>F30_F39_humor</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24728980</v>
+        <v>10760087</v>
       </c>
       <c r="D6" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01088617900051502</v>
+        <v>0.005706005775948856</v>
       </c>
       <c r="F6" t="n">
-        <v>106494</v>
+        <v>91231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.006264726118224064</v>
+        <v>0.005222860231769756</v>
       </c>
       <c r="H6" t="n">
-        <v>84288.5</v>
+        <v>47130</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>106494.0 (84288.5)</t>
+          <t>91231.0 (47130.0)</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>222699</v>
+        <v>124373</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01150642742064994</v>
+        <v>0.006329029039083724</v>
       </c>
       <c r="L6" t="n">
-        <v>56126.75</v>
+        <v>19287.75</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>222699.0 (56126.75)</t>
+          <t>124373.0 (19287.75)</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>446771</v>
+        <v>164052</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01463916861211908</v>
+        <v>0.005805154642320403</v>
       </c>
       <c r="P6" t="n">
-        <v>111315</v>
+        <v>21466</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>446771.0 (111315.0)</t>
+          <t>164052.0 (21466.0)</t>
         </is>
       </c>
     </row>
@@ -826,58 +826,58 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F50_F59</t>
+          <t>F40_F48_ansiosos</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1654188</v>
+        <v>18786599</v>
       </c>
       <c r="D7" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007282058001787353</v>
+        <v>0.009962414096134633</v>
       </c>
       <c r="F7" t="n">
-        <v>10696</v>
+        <v>106494</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006220763970834118</v>
+        <v>0.006264726118224064</v>
       </c>
       <c r="H7" t="n">
-        <v>6869</v>
+        <v>84288.5</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10696.0 (6869.0)</t>
+          <t>106494.0 (84288.5)</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>17765</v>
+        <v>222699</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0008890150839467482</v>
+        <v>0.01150642742064994</v>
       </c>
       <c r="L7" t="n">
-        <v>2954</v>
+        <v>56126.75</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>17765.0 (2954.0)</t>
+          <t>222699.0 (56126.75)</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>21812</v>
+        <v>388668</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000728166465110247</v>
+        <v>0.01387174803955159</v>
       </c>
       <c r="P7" t="n">
-        <v>4284</v>
+        <v>107456</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>21812.0 (4284.0)</t>
+          <t>388668.0 (107456.0)</t>
         </is>
       </c>
     </row>
@@ -887,58 +887,58 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>F60_F69</t>
+          <t>F50_F59_fisiologicos</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>468393</v>
+        <v>1376595</v>
       </c>
       <c r="D8" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0002061957282746087</v>
+        <v>0.000729999582823291</v>
       </c>
       <c r="F8" t="n">
-        <v>2098</v>
+        <v>10696</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001166393462226124</v>
+        <v>0.0006220763970834118</v>
       </c>
       <c r="H8" t="n">
-        <v>1912</v>
+        <v>6869</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2098.0 (1912.0)</t>
+          <t>10696.0 (6869.0)</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4420.5</v>
+        <v>17765</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002220818276609162</v>
+        <v>0.0008890150839467482</v>
       </c>
       <c r="L8" t="n">
-        <v>972.5</v>
+        <v>2954</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4420.5 (972.5)</t>
+          <t>17765.0 (2954.0)</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7834</v>
+        <v>20781</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0002562699514970935</v>
+        <v>0.000728166465110247</v>
       </c>
       <c r="P8" t="n">
-        <v>2707</v>
+        <v>4193</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>7834.0 (2707.0)</t>
+          <t>20781.0 (4193.0)</t>
         </is>
       </c>
     </row>
@@ -948,58 +948,58 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>F70_F79</t>
+          <t>F60_F69_personalidade</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1101623</v>
+        <v>352689</v>
       </c>
       <c r="D9" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0004849559168669456</v>
+        <v>0.000187028736023568</v>
       </c>
       <c r="F9" t="n">
-        <v>6218</v>
+        <v>2098</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003878971727775288</v>
+        <v>0.0001166393462226124</v>
       </c>
       <c r="H9" t="n">
-        <v>4260.5</v>
+        <v>1912</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>6218.0 (4260.5)</t>
+          <t>2098.0 (1912.0)</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8368.5</v>
+        <v>4420.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0004335904786591455</v>
+        <v>0.0002220818276609162</v>
       </c>
       <c r="L9" t="n">
-        <v>4174.25</v>
+        <v>972.5</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8368.5 (4174.25)</t>
+          <t>4420.5 (972.5)</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>17911</v>
+        <v>6652</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0006020897337746102</v>
+        <v>0.0002317332486942622</v>
       </c>
       <c r="P9" t="n">
-        <v>4583</v>
+        <v>1777</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>17911.0 (4583.0)</t>
+          <t>6652.0 (1777.0)</t>
         </is>
       </c>
     </row>
@@ -1009,58 +1009,58 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>F80_F89</t>
+          <t>F70_F79_retardado</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3679270</v>
+        <v>858550</v>
       </c>
       <c r="D10" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001619686368431893</v>
+        <v>0.0004552836105266519</v>
       </c>
       <c r="F10" t="n">
-        <v>15568</v>
+        <v>6218</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008888329923776924</v>
+        <v>0.0003878971727775288</v>
       </c>
       <c r="H10" t="n">
-        <v>10589.5</v>
+        <v>4260.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15568.0 (10589.5)</t>
+          <t>6218.0 (4260.5)</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>21906.5</v>
+        <v>8368.5</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001040358786104932</v>
+        <v>0.0004335904786591455</v>
       </c>
       <c r="L10" t="n">
-        <v>13521.75</v>
+        <v>4174.25</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21906.5 (13521.75)</t>
+          <t>8368.5 (4174.25)</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>71273</v>
+        <v>15713</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002382196634631969</v>
+        <v>0.0005601357473579842</v>
       </c>
       <c r="P10" t="n">
-        <v>37829</v>
+        <v>4011</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>71273.0 (37829.0)</t>
+          <t>15713.0 (4011.0)</t>
         </is>
       </c>
     </row>
@@ -1070,58 +1070,58 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>F90_F98</t>
+          <t>F80_F89_desenvolvimento</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2732508</v>
+        <v>2554679</v>
       </c>
       <c r="D11" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001202903282235632</v>
+        <v>0.001354730043511288</v>
       </c>
       <c r="F11" t="n">
-        <v>14953</v>
+        <v>15568</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0009140309739513143</v>
+        <v>0.0008888329923776924</v>
       </c>
       <c r="H11" t="n">
-        <v>8552</v>
+        <v>10589.5</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>14953.0 (8552.0)</t>
+          <t>15568.0 (10589.5)</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>17898.5</v>
+        <v>21906.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000905561135479811</v>
+        <v>0.001040358786104932</v>
       </c>
       <c r="L11" t="n">
-        <v>6291</v>
+        <v>13521.75</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17898.5 (6291.0)</t>
+          <t>21906.5 (13521.75)</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>47122</v>
+        <v>57623</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001538579486687501</v>
+        <v>0.002083961916737742</v>
       </c>
       <c r="P11" t="n">
-        <v>24241</v>
+        <v>22931</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>47122.0 (24241.0)</t>
+          <t>57623.0 (22931.0)</t>
         </is>
       </c>
     </row>
@@ -1131,58 +1131,58 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>F99_F99</t>
+          <t>F90_F98_comportamento</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2084070</v>
+        <v>1989388</v>
       </c>
       <c r="D12" t="n">
-        <v>2271594101</v>
+        <v>1885747653</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0009174482356168084</v>
+        <v>0.001054959817574277</v>
       </c>
       <c r="F12" t="n">
-        <v>9624</v>
+        <v>14953</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0005732987701009942</v>
+        <v>0.0009140309739513143</v>
       </c>
       <c r="H12" t="n">
-        <v>9568</v>
+        <v>8552</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>9624.0 (9568.0)</t>
+          <t>14953.0 (8552.0)</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>22737</v>
+        <v>17898.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001100788971586108</v>
+        <v>0.000905561135479811</v>
       </c>
       <c r="L12" t="n">
-        <v>3034.5</v>
+        <v>6291</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>22737.0 (3034.5)</t>
+          <t>17898.5 (6291.0)</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>31226</v>
+        <v>37709</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001042131055932764</v>
+        <v>0.001313654400933845</v>
       </c>
       <c r="P12" t="n">
-        <v>6294</v>
+        <v>14066</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>31226.0 (6294.0)</t>
+          <t>37709.0 (14066.0)</t>
         </is>
       </c>
     </row>
@@ -1192,58 +1192,58 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>centro_oeste</t>
+          <t>F99_F99_nao_especificado</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4116631</v>
+        <v>845203</v>
       </c>
       <c r="D13" t="n">
-        <v>165449702</v>
+        <v>1885747653</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02488146518390224</v>
+        <v>0.0004482057812217784</v>
       </c>
       <c r="F13" t="n">
-        <v>20384</v>
+        <v>4812</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01946595158061714</v>
+        <v>0.0002866493850504971</v>
       </c>
       <c r="H13" t="n">
-        <v>18653.5</v>
+        <v>4784</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>20384.0 (18653.5)</t>
+          <t>4812.0 (4784.0)</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>36088.5</v>
+        <v>11368.5</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02552580635792551</v>
+        <v>0.0005503944857930538</v>
       </c>
       <c r="L13" t="n">
-        <v>8013.75</v>
+        <v>1517.25</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>36088.5 (8013.75)</t>
+          <t>11368.5 (1517.25)</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>65863</v>
+        <v>15121</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02935335345089645</v>
+        <v>0.0005400488518012408</v>
       </c>
       <c r="P13" t="n">
-        <v>14998</v>
+        <v>3345</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>65863.0 (14998.0)</t>
+          <t>15121.0 (3345.0)</t>
         </is>
       </c>
     </row>
@@ -1253,58 +1253,58 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nordeste</t>
+          <t>centro_oeste</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11084467</v>
+        <v>3294840</v>
       </c>
       <c r="D14" t="n">
-        <v>565181074</v>
+        <v>134947898</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01961224023577265</v>
+        <v>0.02441564521442194</v>
       </c>
       <c r="F14" t="n">
-        <v>45215</v>
+        <v>20737</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009934924627615038</v>
+        <v>0.01985968954186653</v>
       </c>
       <c r="H14" t="n">
-        <v>33313.5</v>
+        <v>19039</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>45215.0 (33313.5)</t>
+          <t>20737.0 (19039.0)</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>96565.5</v>
+        <v>36813.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02030085752381818</v>
+        <v>0.02596609671721639</v>
       </c>
       <c r="L14" t="n">
-        <v>27297.75</v>
+        <v>8084.75</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>96565.5 (27297.75)</t>
+          <t>36813.5 (8084.75)</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>201410</v>
+        <v>62179</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02866725433465402</v>
+        <v>0.02969709951912182</v>
       </c>
       <c r="P14" t="n">
-        <v>56761</v>
+        <v>13875</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>201410.0 (56761.0)</t>
+          <t>62179.0 (13875.0)</t>
         </is>
       </c>
     </row>
@@ -1314,58 +1314,58 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>norte</t>
+          <t>nordeste</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2148436</v>
+        <v>8425382</v>
       </c>
       <c r="D15" t="n">
-        <v>147043427</v>
+        <v>479798928</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01461089450805577</v>
+        <v>0.01756023514917066</v>
       </c>
       <c r="F15" t="n">
-        <v>9330</v>
+        <v>45897</v>
       </c>
       <c r="G15" t="n">
-        <v>0.008946915263045474</v>
+        <v>0.01010461240646971</v>
       </c>
       <c r="H15" t="n">
-        <v>7832</v>
+        <v>33502.5</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9330.0 (7832.0)</t>
+          <t>45897.0 (33502.5)</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>18697</v>
+        <v>97863</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01308171609344011</v>
+        <v>0.02059428200637744</v>
       </c>
       <c r="L15" t="n">
-        <v>5937</v>
+        <v>27501.75</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18697.0 (5937.0)</t>
+          <t>97863.0 (27501.75)</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>36554</v>
+        <v>174538</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02064930826562128</v>
+        <v>0.02676228120565622</v>
       </c>
       <c r="P15" t="n">
-        <v>14030</v>
+        <v>42671</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>36554.0 (14030.0)</t>
+          <t>174538.0 (42671.0)</t>
         </is>
       </c>
     </row>
@@ -1375,58 +1375,58 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>sudeste</t>
+          <t>norte</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23627864</v>
+        <v>1616138</v>
       </c>
       <c r="D16" t="n">
-        <v>914948555</v>
+        <v>123296263</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02582425412978547</v>
+        <v>0.01310776142501578</v>
       </c>
       <c r="F16" t="n">
-        <v>125678</v>
+        <v>9607</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01806155750906033</v>
+        <v>0.009086378213244723</v>
       </c>
       <c r="H16" t="n">
-        <v>102973</v>
+        <v>7898.5</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>125678.0 (102973.0)</t>
+          <t>9607.0 (7898.5)</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>220459.5</v>
+        <v>18924.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02792545230628042</v>
+        <v>0.01330482475406934</v>
       </c>
       <c r="L16" t="n">
-        <v>40774</v>
+        <v>6016.25</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>220459.5 (40774.0)</t>
+          <t>18924.5 (6016.25)</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>384353</v>
+        <v>30268</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0305624130123724</v>
+        <v>0.01789448484304396</v>
       </c>
       <c r="P16" t="n">
-        <v>98983</v>
+        <v>7962</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>384353.0 (98983.0)</t>
+          <t>30268.0 (7962.0)</t>
         </is>
       </c>
     </row>
@@ -1436,58 +1436,119 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>sudeste</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>18968864</v>
+      </c>
+      <c r="D17" t="n">
+        <v>752858369</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.02519579349990596</v>
+      </c>
+      <c r="F17" t="n">
+        <v>128800</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.01853145620958914</v>
+      </c>
+      <c r="H17" t="n">
+        <v>105837.5</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>128800.0 (105837.5)</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>226498.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.02866958557436348</v>
+      </c>
+      <c r="L17" t="n">
+        <v>41205</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>226498.5 (41205.0)</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>353048</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.03050206139122494</v>
+      </c>
+      <c r="P17" t="n">
+        <v>86025</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>353048.0 (86025.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>sul</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>13111028</v>
-      </c>
-      <c r="D17" t="n">
-        <v>478971518</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.02737329362452821</v>
-      </c>
-      <c r="F17" t="n">
-        <v>84754</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.02502007444633176</v>
-      </c>
-      <c r="H17" t="n">
-        <v>31206.5</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>84754.0 (31206.5)</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>113640.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.02719270461848197</v>
-      </c>
-      <c r="L17" t="n">
-        <v>23039.75</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>113640.5 (23039.75)</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>193280</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.02963927937024431</v>
-      </c>
-      <c r="P17" t="n">
-        <v>44492</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>193280.0 (44492.0)</t>
+      <c r="C18" t="n">
+        <v>10849583</v>
+      </c>
+      <c r="D18" t="n">
+        <v>394846195</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.02747799811012488</v>
+      </c>
+      <c r="F18" t="n">
+        <v>86601</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02561154839579424</v>
+      </c>
+      <c r="H18" t="n">
+        <v>31731.5</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>86601.0 (31731.5)</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>116282.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.02781146747214928</v>
+      </c>
+      <c r="L18" t="n">
+        <v>23564.5</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>116282.5 (23564.5)</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>172807</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.02958805074902595</v>
+      </c>
+      <c r="P18" t="n">
+        <v>40856</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>172807.0 (40856.0)</t>
         </is>
       </c>
     </row>

--- a/analise_descritiva.xlsx
+++ b/analise_descritiva.xlsx
@@ -525,26 +525,26 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43154807</v>
+        <v>38795399</v>
       </c>
       <c r="D2" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02288471998432337</v>
+        <v>0.02458081894744321</v>
       </c>
       <c r="F2" t="n">
-        <v>299743</v>
+        <v>370404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01696494463171732</v>
+        <v>0.0188711132462399</v>
       </c>
       <c r="H2" t="n">
-        <v>204292.5</v>
+        <v>75633</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>299743.0 (204292.5)</t>
+          <t>370404.0 (75633.0)</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -586,26 +586,26 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1956802</v>
+        <v>1739866</v>
       </c>
       <c r="D3" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001037679668797127</v>
+        <v>0.001102381525675564</v>
       </c>
       <c r="F3" t="n">
-        <v>14319</v>
+        <v>17562</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000858636171532386</v>
+        <v>0.0009063944159332516</v>
       </c>
       <c r="H3" t="n">
-        <v>9151</v>
+        <v>3328.5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14319.0 (9151.0)</t>
+          <t>17562.0 (3328.5)</t>
         </is>
       </c>
       <c r="J3" t="n">
@@ -647,26 +647,26 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>948688</v>
+        <v>840859</v>
       </c>
       <c r="D4" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005030832192688934</v>
+        <v>0.0005327694358634681</v>
       </c>
       <c r="F4" t="n">
-        <v>6647</v>
+        <v>8004</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003834075805155919</v>
+        <v>0.0004202771565841394</v>
       </c>
       <c r="H4" t="n">
-        <v>3720</v>
+        <v>1705.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>6647.0 (3720.0)</t>
+          <t>8004.0 (1705.5)</t>
         </is>
       </c>
       <c r="J4" t="n">
@@ -708,26 +708,26 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2725527</v>
+        <v>2412533</v>
       </c>
       <c r="D5" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00144532965249301</v>
+        <v>0.001528584275618148</v>
       </c>
       <c r="F5" t="n">
-        <v>22093</v>
+        <v>27248</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001251926760547725</v>
+        <v>0.001416200982968179</v>
       </c>
       <c r="H5" t="n">
-        <v>15685.5</v>
+        <v>5334.5</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>22093.0 (15685.5)</t>
+          <t>27248.0 (5334.5)</t>
         </is>
       </c>
       <c r="J5" t="n">
@@ -769,26 +769,26 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10760087</v>
+        <v>9309427</v>
       </c>
       <c r="D6" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005706005775948856</v>
+        <v>0.005898465939000639</v>
       </c>
       <c r="F6" t="n">
-        <v>91231</v>
+        <v>104912</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005222860231769756</v>
+        <v>0.005513261052611881</v>
       </c>
       <c r="H6" t="n">
-        <v>47130</v>
+        <v>18198.5</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91231.0 (47130.0)</t>
+          <t>104912.0 (18198.5)</t>
         </is>
       </c>
       <c r="J6" t="n">
@@ -830,26 +830,26 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18786599</v>
+        <v>17339444</v>
       </c>
       <c r="D7" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009962414096134633</v>
+        <v>0.01098629591651656</v>
       </c>
       <c r="F7" t="n">
-        <v>106494</v>
+        <v>136972</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006264726118224064</v>
+        <v>0.00689778740324437</v>
       </c>
       <c r="H7" t="n">
-        <v>84288.5</v>
+        <v>37927</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>106494.0 (84288.5)</t>
+          <t>136972.0 (37927.0)</t>
         </is>
       </c>
       <c r="J7" t="n">
@@ -891,26 +891,26 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1376595</v>
+        <v>1211390</v>
       </c>
       <c r="D8" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000729999582823291</v>
+        <v>0.0007675383945591908</v>
       </c>
       <c r="F8" t="n">
-        <v>10696</v>
+        <v>13117</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0006220763970834118</v>
+        <v>0.0006750786586386185</v>
       </c>
       <c r="H8" t="n">
-        <v>6869</v>
+        <v>2993</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10696.0 (6869.0)</t>
+          <t>13117.0 (2993.0)</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -952,26 +952,26 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>352689</v>
+        <v>324256</v>
       </c>
       <c r="D9" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000187028736023568</v>
+        <v>0.0002054490541164984</v>
       </c>
       <c r="F9" t="n">
-        <v>2098</v>
+        <v>2881</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001166393462226124</v>
+        <v>0.0001548017076575037</v>
       </c>
       <c r="H9" t="n">
-        <v>1912</v>
+        <v>977.5</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2098.0 (1912.0)</t>
+          <t>2881.0 (977.5)</t>
         </is>
       </c>
       <c r="J9" t="n">
@@ -1013,26 +1013,26 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>858550</v>
+        <v>764100</v>
       </c>
       <c r="D10" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0004552836105266519</v>
+        <v>0.0004841348263422</v>
       </c>
       <c r="F10" t="n">
-        <v>6218</v>
+        <v>7925</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003878971727775288</v>
+        <v>0.0004206557777469395</v>
       </c>
       <c r="H10" t="n">
-        <v>4260.5</v>
+        <v>1477.5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>6218.0 (4260.5)</t>
+          <t>7925.0 (1477.5)</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1074,26 +1074,26 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2554679</v>
+        <v>2325489</v>
       </c>
       <c r="D11" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001354730043511288</v>
+        <v>0.001473433075743615</v>
       </c>
       <c r="F11" t="n">
-        <v>15568</v>
+        <v>19397</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0008888329923776924</v>
+        <v>0.001015976236918935</v>
       </c>
       <c r="H11" t="n">
-        <v>10589.5</v>
+        <v>5787</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15568.0 (10589.5)</t>
+          <t>19397.0 (5787.0)</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1135,26 +1135,26 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1989388</v>
+        <v>1742797</v>
       </c>
       <c r="D12" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001054959817574277</v>
+        <v>0.00110423861136593</v>
       </c>
       <c r="F12" t="n">
-        <v>14953</v>
+        <v>18011</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0009140309739513143</v>
+        <v>0.0009561969839340518</v>
       </c>
       <c r="H12" t="n">
-        <v>8552</v>
+        <v>4095.5</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>14953.0 (8552.0)</t>
+          <t>18011.0 (4095.5)</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1196,26 +1196,26 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>845203</v>
+        <v>785238</v>
       </c>
       <c r="D13" t="n">
-        <v>1885747653</v>
+        <v>1578279352</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0004482057812217784</v>
+        <v>0.0004975278926414036</v>
       </c>
       <c r="F13" t="n">
-        <v>4812</v>
+        <v>6784</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002866493850504971</v>
+        <v>0.000352591071057394</v>
       </c>
       <c r="H13" t="n">
-        <v>4784</v>
+        <v>2368</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4812.0 (4784.0)</t>
+          <t>6784.0 (2368.0)</t>
         </is>
       </c>
       <c r="J13" t="n">
@@ -1257,26 +1257,26 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3294840</v>
+        <v>3029967</v>
       </c>
       <c r="D14" t="n">
-        <v>134947898</v>
+        <v>115942117</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02441564521442194</v>
+        <v>0.02613344553644816</v>
       </c>
       <c r="F14" t="n">
-        <v>20737</v>
+        <v>28906</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01985968954186653</v>
+        <v>0.02237251720072126</v>
       </c>
       <c r="H14" t="n">
-        <v>19039</v>
+        <v>6737</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>20737.0 (19039.0)</t>
+          <t>28906.0 (6737.0)</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1318,26 +1318,26 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8425382</v>
+        <v>7761815</v>
       </c>
       <c r="D15" t="n">
-        <v>479798928</v>
+        <v>390034776</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01756023514917066</v>
+        <v>0.01990031524778703</v>
       </c>
       <c r="F15" t="n">
-        <v>45897</v>
+        <v>57169</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01010461240646971</v>
+        <v>0.01139147012325543</v>
       </c>
       <c r="H15" t="n">
-        <v>33502.5</v>
+        <v>15621</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>45897.0 (33502.5)</t>
+          <t>57169.0 (15621.0)</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1379,26 +1379,26 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1616138</v>
+        <v>1470280</v>
       </c>
       <c r="D16" t="n">
-        <v>123296263</v>
+        <v>101910699</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01310776142501578</v>
+        <v>0.01442714076566191</v>
       </c>
       <c r="F16" t="n">
-        <v>9607</v>
+        <v>13765</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009086378213244723</v>
+        <v>0.01068597965631007</v>
       </c>
       <c r="H16" t="n">
-        <v>7898.5</v>
+        <v>3093</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9607.0 (7898.5)</t>
+          <t>13765.0 (3093.0)</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1440,26 +1440,26 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18968864</v>
+        <v>17269462</v>
       </c>
       <c r="D17" t="n">
-        <v>752858369</v>
+        <v>638053892</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02519579349990596</v>
+        <v>0.02706583599994716</v>
       </c>
       <c r="F17" t="n">
-        <v>128800</v>
+        <v>163954</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01853145620958914</v>
+        <v>0.02085792354036899</v>
       </c>
       <c r="H17" t="n">
-        <v>105837.5</v>
+        <v>43830.5</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>128800.0 (105837.5)</t>
+          <t>163954.0 (43830.5)</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1501,26 +1501,26 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10849583</v>
+        <v>9263875</v>
       </c>
       <c r="D18" t="n">
-        <v>394846195</v>
+        <v>332337868</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02747799811012488</v>
+        <v>0.02787487040146746</v>
       </c>
       <c r="F18" t="n">
-        <v>86601</v>
+        <v>96069</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02561154839579424</v>
+        <v>0.02605642384225515</v>
       </c>
       <c r="H18" t="n">
-        <v>31731.5</v>
+        <v>16212</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>86601.0 (31731.5)</t>
+          <t>96069.0 (16212.0)</t>
         </is>
       </c>
       <c r="J18" t="n">
